--- a/game_excel/carnivalsub.xlsx
+++ b/game_excel/carnivalsub.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CarnivalSub" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,18 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>限时评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注社区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邀请好友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +151,6 @@
   </si>
   <si>
     <t>101,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10000,2,5000,3,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,6 +179,58 @@
 404 邀请好友（参数：分享数量）
 405 物品兑换（参数：道具ID1，道具数量1,道具ID2,道具2数量2）
 406 被邀请兑换奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,20000,2,5000,3,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,2,2,5000,3,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50000,15,3,3,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c|s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DescriptionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardMailID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励邮件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +334,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -594,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -607,39 +649,46 @@
     <col min="3" max="3" width="16.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,28 +696,34 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -676,97 +731,114 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="112.5">
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="112.5">
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
         <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1">
         <v>401</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="F6" s="5"/>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5">
         <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1">
         <v>402</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" s="5"/>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5">
         <v>301</v>
@@ -775,18 +847,21 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>403</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
         <v>401</v>
@@ -795,22 +870,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1">
         <v>404</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
+        <v>5007621</v>
+      </c>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="1"/>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
         <v>402</v>
@@ -819,22 +900,28 @@
         <v>1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>404</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
+        <v>5007621</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="1"/>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
         <v>403</v>
@@ -843,22 +930,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
         <v>404</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
+        <v>5007621</v>
+      </c>
+      <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="1"/>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="5">
         <v>404</v>
@@ -867,22 +960,28 @@
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1">
         <v>404</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="5">
+        <v>5007621</v>
+      </c>
+      <c r="G12" s="1">
         <v>12</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" s="1"/>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" s="5">
         <v>405</v>
@@ -891,22 +990,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1">
         <v>404</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="5">
+        <v>5007621</v>
+      </c>
+      <c r="G13" s="1">
         <v>20</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="1"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5">
         <v>501</v>
@@ -915,25 +1020,25 @@
         <v>1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1">
         <v>405</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>101</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="J14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="K14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5">
         <v>502</v>
@@ -942,25 +1047,25 @@
         <v>1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1">
         <v>405</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>101</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="J15">
+      <c r="I15" s="4"/>
+      <c r="K15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5">
         <v>503</v>
@@ -969,25 +1074,25 @@
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1">
         <v>405</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>101</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="I16" s="4"/>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5">
         <v>504</v>
@@ -996,25 +1101,25 @@
         <v>1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1">
         <v>405</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>101</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="J17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="I17" s="4"/>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5">
         <v>505</v>
@@ -1023,25 +1128,25 @@
         <v>1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1">
         <v>405</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>101</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="J18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="I18" s="4"/>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="5">
         <v>601</v>
@@ -1050,12 +1155,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1">
         <v>406</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1</v>
       </c>
     </row>
